--- a/allData.xlsx
+++ b/allData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\王静的读研生活\江苏省\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E19882-EB1B-4215-AAC8-2C5C2E8A0064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5132B-CC38-464D-AF07-2BDF7955068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B26508C2-8481-4064-9ADA-68CC42DBDDCD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B26508C2-8481-4064-9ADA-68CC42DBDDCD}"/>
   </bookViews>
   <sheets>
     <sheet name="疫情基本信息" sheetId="1" r:id="rId1"/>
@@ -39,21 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
-    <t>暴发ID</t>
-  </si>
-  <si>
-    <t>波及或暴露人口数</t>
-  </si>
-  <si>
-    <t>发病数</t>
-  </si>
-  <si>
-    <t>场所类型</t>
-  </si>
-  <si>
-    <t>传播途径</t>
-  </si>
-  <si>
     <t>普通高等学校</t>
   </si>
   <si>
@@ -125,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病毒亚型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴发1</t>
   </si>
   <si>
@@ -236,6 +217,24 @@
   <si>
     <t>Incidence</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>PopulationSize</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Routine</t>
   </si>
 </sst>
 </file>
@@ -619,30 +618,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D596B6-454D-49FD-A00B-B80F8A15D547}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -650,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>9523</v>
@@ -659,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -670,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>14500</v>
@@ -679,10 +681,10 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -690,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2032</v>
@@ -699,10 +701,10 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -710,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1578</v>
@@ -719,10 +721,10 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2784</v>
@@ -739,10 +741,10 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>3142</v>
@@ -759,10 +761,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -770,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1810</v>
@@ -779,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -790,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2640</v>
@@ -799,10 +801,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1180</v>
@@ -819,10 +821,10 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -830,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>713</v>
@@ -839,10 +841,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -850,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1751</v>
@@ -859,10 +861,10 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -870,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1901</v>
@@ -879,10 +881,10 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -890,7 +892,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1533</v>
@@ -899,10 +901,10 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -910,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>4820</v>
@@ -919,10 +921,10 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -930,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>992</v>
@@ -939,10 +941,10 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -950,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>612</v>
@@ -959,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -970,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>4000</v>
@@ -979,10 +981,10 @@
         <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -990,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>4000</v>
@@ -999,10 +1001,10 @@
         <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1010,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>13000</v>
@@ -1019,10 +1021,10 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1030,7 +1032,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2555</v>
@@ -1039,10 +1041,10 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1050,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>1755</v>
@@ -1059,10 +1061,10 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1070,7 +1072,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1744</v>
@@ -1079,10 +1081,10 @@
         <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1090,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>2650</v>
@@ -1099,10 +1101,10 @@
         <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88152917-5C74-47B5-AD73-25853C8DE529}">
   <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1126,24 +1128,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,13 +1182,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,13 +1233,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1314,13 +1316,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1413,13 +1415,13 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,13 +1498,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,13 +1549,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1582,13 +1584,13 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,13 +1635,13 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1748,13 +1750,13 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1807,13 +1809,13 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1917,13 +1919,13 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2016,13 +2018,13 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2083,13 +2085,13 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2206,13 +2208,13 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2297,13 +2299,13 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2356,13 +2358,13 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2439,13 +2441,13 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2658,13 +2660,13 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -2693,13 +2695,13 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.3">
@@ -2848,13 +2850,13 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -2979,13 +2981,13 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -3062,13 +3064,13 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.3">

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -1,43 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\王静的读研生活\江苏省\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\王静的读研生活\江苏省\NorovirusJiangsu-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5132B-CC38-464D-AF07-2BDF7955068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E2848E-47FD-4425-9750-8269AB64B80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B26508C2-8481-4064-9ADA-68CC42DBDDCD}"/>
+    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="疫情基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="流行曲线" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>PopulationSize</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Routine</t>
+  </si>
+  <si>
+    <t>GII.4</t>
+  </si>
   <si>
     <t>普通高等学校</t>
   </si>
@@ -45,18 +50,30 @@
     <t>人-人</t>
   </si>
   <si>
+    <t>GII.2</t>
+  </si>
+  <si>
     <t>水/食物传人</t>
   </si>
   <si>
+    <t>GII.17</t>
+  </si>
+  <si>
     <t>高中</t>
   </si>
   <si>
     <t>小学</t>
   </si>
   <si>
+    <t>GII.3</t>
+  </si>
+  <si>
     <t>小学+初中+高中</t>
   </si>
   <si>
+    <t>GII.6</t>
+  </si>
+  <si>
     <t>幼儿园</t>
   </si>
   <si>
@@ -69,48 +86,28 @@
     <t>小学+初中</t>
   </si>
   <si>
+    <t>GII.14</t>
+  </si>
+  <si>
     <t>GI.2</t>
   </si>
   <si>
+    <t>GII.13</t>
+  </si>
+  <si>
     <t>初中</t>
   </si>
   <si>
     <t>中等职业学校</t>
   </si>
   <si>
-    <t>GII.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GII.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GII.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GII.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GII.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GII.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GI.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GII.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴发1</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Incidence</t>
   </si>
   <si>
     <t>发病日期</t>
@@ -120,140 +117,96 @@
   </si>
   <si>
     <t>暴发2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴发23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incidence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Virus</t>
-  </si>
-  <si>
-    <t>PopulationSize</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Routine</t>
+  </si>
+  <si>
+    <t>暴发24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -362,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,26 +348,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,23 +383,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,45 +525,40 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D596B6-454D-49FD-A00B-B80F8A15D547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>9523</v>
@@ -661,10 +575,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -672,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>14500</v>
@@ -681,10 +595,10 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -692,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2032</v>
@@ -701,10 +615,10 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -712,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1578</v>
@@ -721,10 +635,10 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -732,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2784</v>
@@ -741,10 +655,10 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>3142</v>
@@ -761,10 +675,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1810</v>
@@ -781,10 +695,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -792,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>2640</v>
@@ -801,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -812,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1180</v>
@@ -821,10 +735,10 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>713</v>
@@ -841,10 +755,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1751</v>
@@ -861,10 +775,10 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -872,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1901</v>
@@ -881,10 +795,10 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -892,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>1533</v>
@@ -901,10 +815,10 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -912,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>4820</v>
@@ -921,10 +835,10 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -932,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>992</v>
@@ -941,10 +855,10 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -952,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>612</v>
@@ -961,10 +875,10 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -972,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>4000</v>
@@ -981,10 +895,10 @@
         <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>4000</v>
@@ -1001,10 +915,10 @@
         <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1021,10 +935,10 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1032,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>2555</v>
@@ -1041,10 +955,10 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>1755</v>
@@ -1061,10 +975,10 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,7 +986,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>1744</v>
@@ -1081,10 +995,10 @@
         <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>2650</v>
@@ -1101,158 +1015,149 @@
         <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88152917-5C74-47B5-AD73-25853C8DE529}">
-  <dimension ref="A1:C269"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>41219</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
-        <v>41220</v>
+        <v>41219</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
-        <v>41221</v>
+        <v>41220</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
+        <v>41221</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>41222</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>42709</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
-        <v>42710</v>
+        <v>42709</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <v>42711</v>
+        <v>42710</v>
       </c>
       <c r="C11" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
-        <v>42712</v>
+        <v>42711</v>
       </c>
       <c r="C12" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
+        <v>42712</v>
+      </c>
+      <c r="C13" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
         <v>42713</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>42033</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>42034</v>
+        <v>42033</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1260,7 +1165,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>42035</v>
+        <v>42034</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1268,7 +1173,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>42036</v>
+        <v>42035</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1276,82 +1181,82 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>42037</v>
+        <v>42036</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>42038</v>
+        <v>42037</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>42039</v>
+        <v>42038</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>42040</v>
+        <v>42039</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
+        <v>42040</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
         <v>42041</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
+      <c r="C25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>42064</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
-        <v>42065</v>
+        <v>42064</v>
       </c>
       <c r="C28" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
-        <v>42066</v>
+        <v>42065</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
-        <v>42067</v>
+        <v>42066</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -1359,15 +1264,15 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
-        <v>42068</v>
+        <v>42067</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
-        <v>42069</v>
+        <v>42068</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1375,7 +1280,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
-        <v>42070</v>
+        <v>42069</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1383,106 +1288,106 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
-        <v>42071</v>
+        <v>42070</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
-        <v>42072</v>
+        <v>42071</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
-        <v>42073</v>
+        <v>42072</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
+        <v>42073</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
         <v>42074</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
+      <c r="C38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="4">
-        <v>42078</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
-        <v>42080</v>
+        <v>42078</v>
       </c>
       <c r="C41" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
-        <v>42081</v>
+        <v>42080</v>
       </c>
       <c r="C42" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
-        <v>42082</v>
+        <v>42081</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
-        <v>42083</v>
+        <v>42082</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
-        <v>42084</v>
+        <v>42083</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
-        <v>42085</v>
+        <v>42084</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
-        <v>42086</v>
+        <v>42085</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -1490,120 +1395,120 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
+        <v>42086</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
         <v>42087</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>23</v>
+      <c r="C49" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
-        <v>42359</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
-        <v>42360</v>
+        <v>42359</v>
       </c>
       <c r="C52" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
-        <v>42361</v>
+        <v>42360</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
-        <v>42362</v>
+        <v>42361</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
+        <v>42362</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
         <v>42363</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="4">
-        <v>42256</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
-        <v>42257</v>
+        <v>42256</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
+        <v>42257</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
         <v>42258</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="4">
-        <v>42451</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
-        <v>42452</v>
+        <v>42451</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1611,224 +1516,224 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
-        <v>42453</v>
+        <v>42452</v>
       </c>
       <c r="C65" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
-        <v>42454</v>
+        <v>42453</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
+        <v>42454</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
         <v>42455</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>23</v>
+      <c r="C68" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="2">
-        <v>43427</v>
-      </c>
-      <c r="C70" s="1">
-        <v>6</v>
+      <c r="A70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
-        <v>43428</v>
+        <v>43427</v>
       </c>
       <c r="C71" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
-        <v>43429</v>
+        <v>43428</v>
       </c>
       <c r="C72" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
-        <v>43430</v>
+        <v>43429</v>
       </c>
       <c r="C73" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
-        <v>43431</v>
+        <v>43430</v>
       </c>
       <c r="C74" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
-        <v>43432</v>
+        <v>43431</v>
       </c>
       <c r="C75" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C76" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
-        <v>43434</v>
+        <v>43433</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
-        <v>43435</v>
+        <v>43434</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
-        <v>43436</v>
+        <v>43435</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
-        <v>43437</v>
+        <v>43436</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
-        <v>43438</v>
+        <v>43437</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
-        <v>43439</v>
+        <v>43438</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>23</v>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>43439</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="6">
-        <v>41218</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+      <c r="A85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="6">
-        <v>41219</v>
+        <v>41218</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" s="6">
-        <v>41220</v>
+        <v>41219</v>
       </c>
       <c r="C87">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="6">
-        <v>41221</v>
+        <v>41220</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" s="6">
-        <v>41222</v>
+        <v>41221</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" s="6">
+        <v>41222</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="6">
         <v>41223</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>23</v>
+      <c r="C91">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="6">
-        <v>41279</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
+      <c r="A93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" s="6">
-        <v>41280</v>
+        <v>41279</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1836,31 +1741,31 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" s="6">
-        <v>41281</v>
+        <v>41280</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" s="6">
-        <v>41282</v>
+        <v>41281</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B97" s="6">
-        <v>41283</v>
+        <v>41282</v>
       </c>
       <c r="C97">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B98" s="6">
-        <v>41284</v>
+        <v>41283</v>
       </c>
       <c r="C98">
         <v>13</v>
@@ -1868,15 +1773,15 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B99" s="6">
-        <v>41285</v>
+        <v>41284</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" s="6">
-        <v>41286</v>
+        <v>41285</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1884,23 +1789,23 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101" s="6">
-        <v>41287</v>
+        <v>41286</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102" s="6">
-        <v>41288</v>
+        <v>41287</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B103" s="6">
-        <v>41289</v>
+        <v>41288</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1908,168 +1813,168 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B104" s="6">
+        <v>41289</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="6">
         <v>41290</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="6"/>
+      <c r="C105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="6">
-        <v>41387</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B108" s="6">
-        <v>41388</v>
+        <v>41387</v>
       </c>
       <c r="C108">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B109" s="6">
-        <v>41389</v>
+        <v>41388</v>
       </c>
       <c r="C109">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B110" s="6">
-        <v>41390</v>
+        <v>41389</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B111" s="6">
-        <v>41391</v>
+        <v>41390</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B112" s="6">
-        <v>41392</v>
+        <v>41391</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B113" s="6">
-        <v>41393</v>
+        <v>41392</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B114" s="6">
-        <v>41394</v>
+        <v>41393</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115" s="6">
-        <v>41395</v>
+        <v>41394</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" s="6">
-        <v>41396</v>
+        <v>41395</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B117" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="6">
         <v>41397</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>35</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>23</v>
+      <c r="C118">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B120" s="6">
-        <v>42328</v>
-      </c>
-      <c r="C120">
-        <v>3</v>
+      <c r="A120" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B121" s="6">
-        <v>42329</v>
+        <v>42328</v>
       </c>
       <c r="C121">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B122" s="6">
-        <v>42330</v>
+        <v>42329</v>
       </c>
       <c r="C122">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="6">
-        <v>42331</v>
+        <v>42330</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" s="6">
-        <v>42332</v>
+        <v>42331</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B125" s="6">
-        <v>42333</v>
+        <v>42332</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2077,34 +1982,34 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B126" s="6">
+        <v>42333</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="6">
         <v>42334</v>
       </c>
-      <c r="C126">
+      <c r="C127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="6">
-        <v>42437</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
+      <c r="A129" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B130" s="6">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2112,7 +2017,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B131" s="6">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2120,7 +2025,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B132" s="6">
-        <v>42440</v>
+        <v>42439</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2128,55 +2033,55 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B133" s="6">
-        <v>42441</v>
+        <v>42440</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B134" s="6">
-        <v>42442</v>
+        <v>42441</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B135" s="6">
-        <v>42443</v>
+        <v>42442</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B136" s="6">
-        <v>42444</v>
+        <v>42443</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B137" s="6">
-        <v>42445</v>
+        <v>42444</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B138" s="6">
-        <v>42446</v>
+        <v>42445</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B139" s="6">
-        <v>42447</v>
+        <v>42446</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2184,106 +2089,106 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B140" s="6">
-        <v>42448</v>
+        <v>42447</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B141" s="6">
-        <v>42449</v>
+        <v>42448</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B142" s="6">
+        <v>42449</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="6">
         <v>42450</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="6">
-        <v>42718</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
+      <c r="A145" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B146" s="6">
-        <v>42719</v>
+        <v>42718</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B147" s="6">
-        <v>42720</v>
+        <v>42719</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B148" s="6">
-        <v>42721</v>
+        <v>42720</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B149" s="6">
-        <v>42722</v>
+        <v>42721</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B150" s="6">
-        <v>42723</v>
+        <v>42722</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B151" s="6">
-        <v>42724</v>
+        <v>42723</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B152" s="6">
-        <v>42725</v>
+        <v>42724</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B153" s="6">
-        <v>42726</v>
+        <v>42725</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -2291,34 +2196,34 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B154" s="6">
+        <v>42726</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="6">
         <v>42727</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>38</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="6">
-        <v>42779</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
+      <c r="A157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B158" s="6">
-        <v>42780</v>
+        <v>42779</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2326,66 +2231,66 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B159" s="6">
-        <v>42781</v>
+        <v>42780</v>
       </c>
       <c r="C159">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B160" s="6">
-        <v>42782</v>
+        <v>42781</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B161" s="6">
-        <v>42783</v>
+        <v>42782</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B162" s="6">
+        <v>42783</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="6">
         <v>42784</v>
       </c>
-      <c r="C162">
+      <c r="C163">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>39</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="6">
-        <v>42979</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
+      <c r="A165" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B166" s="6">
-        <v>42980</v>
+        <v>42979</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B167" s="6">
-        <v>42981</v>
+        <v>42980</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2393,82 +2298,82 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B168" s="6">
-        <v>42982</v>
+        <v>42981</v>
       </c>
       <c r="C168">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B169" s="6">
-        <v>42983</v>
+        <v>42982</v>
       </c>
       <c r="C169">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B170" s="6">
-        <v>42984</v>
+        <v>42983</v>
       </c>
       <c r="C170">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B171" s="6">
-        <v>42985</v>
+        <v>42984</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B172" s="6">
-        <v>42986</v>
+        <v>42985</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B173" s="6">
+        <v>42986</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="6">
         <v>42987</v>
       </c>
-      <c r="C173">
+      <c r="C174">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>40</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B176" s="6">
-        <v>43086</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
+      <c r="A176" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" s="6">
-        <v>43087</v>
+        <v>43086</v>
       </c>
       <c r="C177">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" s="6">
-        <v>43088</v>
+        <v>43087</v>
       </c>
       <c r="C178">
         <v>5</v>
@@ -2476,23 +2381,23 @@
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" s="6">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="C179">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" s="6">
-        <v>43090</v>
+        <v>43089</v>
       </c>
       <c r="C180">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="6">
-        <v>43091</v>
+        <v>43090</v>
       </c>
       <c r="C181">
         <v>7</v>
@@ -2500,55 +2405,55 @@
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" s="6">
-        <v>43092</v>
+        <v>43091</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" s="6">
-        <v>43093</v>
+        <v>43092</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" s="6">
-        <v>43094</v>
+        <v>43093</v>
       </c>
       <c r="C184">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" s="6">
-        <v>43095</v>
+        <v>43094</v>
       </c>
       <c r="C185">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="6">
-        <v>43096</v>
+        <v>43095</v>
       </c>
       <c r="C186">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="6">
-        <v>43097</v>
+        <v>43096</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="6">
-        <v>43098</v>
+        <v>43097</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -2556,63 +2461,63 @@
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="6">
-        <v>43099</v>
+        <v>43098</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" s="6">
-        <v>43100</v>
+        <v>43099</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="6">
-        <v>43101</v>
+        <v>43100</v>
       </c>
       <c r="C191">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="6">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="C192">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B193" s="6">
-        <v>43103</v>
+        <v>43102</v>
       </c>
       <c r="C193">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B194" s="6">
-        <v>43104</v>
+        <v>43103</v>
       </c>
       <c r="C194">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B195" s="6">
-        <v>43105</v>
+        <v>43104</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B196" s="6">
-        <v>43106</v>
+        <v>43105</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -2620,328 +2525,328 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B197" s="6">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B198" s="6">
-        <v>43108</v>
+        <v>43107</v>
       </c>
       <c r="C198">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B199" s="6">
-        <v>43109</v>
+        <v>43108</v>
       </c>
       <c r="C199">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200" s="6">
-        <v>43110</v>
+        <v>43109</v>
       </c>
       <c r="C200">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B201" s="6">
-        <v>43111</v>
+        <v>43110</v>
       </c>
       <c r="C201">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>41</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>23</v>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B202" s="6">
+        <v>43111</v>
+      </c>
+      <c r="C202">
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B204" s="6">
-        <v>43248</v>
-      </c>
-      <c r="C204">
-        <v>8</v>
+      <c r="A204" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B205" s="6">
-        <v>43249</v>
+        <v>43248</v>
       </c>
       <c r="C205">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B206" s="6">
+        <v>43249</v>
+      </c>
+      <c r="C206">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="6">
         <v>43250</v>
       </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>42</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209" s="6">
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>49</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="6">
         <v>43347</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B210" s="6">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B211" s="6">
         <v>43348</v>
       </c>
-      <c r="C210">
+      <c r="C211">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B211" s="6">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="6">
         <v>43349</v>
       </c>
-      <c r="C211">
+      <c r="C212">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B212" s="6">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B213" s="6">
         <v>43350</v>
       </c>
-      <c r="C212">
+      <c r="C213">
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B213" s="6">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B214" s="6">
         <v>43351</v>
       </c>
-      <c r="C213">
+      <c r="C214">
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B214" s="6">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="6">
         <v>43352</v>
       </c>
-      <c r="C214">
+      <c r="C215">
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215" s="6">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B216" s="6">
         <v>43353</v>
       </c>
-      <c r="C215">
+      <c r="C216">
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B216" s="6">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="6">
         <v>43354</v>
-      </c>
-      <c r="C216">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B217" s="6">
-        <v>43355</v>
       </c>
       <c r="C217">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B218" s="6">
+        <v>43355</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B219" s="6">
         <v>43356</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B219" s="6">
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="6">
         <v>43357</v>
       </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B220" s="6">
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B221" s="6">
         <v>43358</v>
       </c>
-      <c r="C220">
+      <c r="C221">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B221" s="6">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B222" s="6">
         <v>43359</v>
       </c>
-      <c r="C221">
+      <c r="C222">
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B222" s="6">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="6">
         <v>43360</v>
       </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B223" s="6">
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B224" s="6">
         <v>43361</v>
       </c>
-      <c r="C223">
+      <c r="C224">
         <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B224" s="6">
-        <v>43362</v>
-      </c>
-      <c r="C224">
-        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B225" s="6">
-        <v>43363</v>
+        <v>43362</v>
       </c>
       <c r="C225">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B226" s="6">
+        <v>43363</v>
+      </c>
+      <c r="C226">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="6">
         <v>43364</v>
       </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>43</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>23</v>
+      <c r="C227">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B229" s="6">
-        <v>43381</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
+      <c r="A229" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B230" s="6">
-        <v>43382</v>
+        <v>43381</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B231" s="6">
-        <v>43383</v>
+        <v>43382</v>
       </c>
       <c r="C231">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B232" s="6">
-        <v>43384</v>
+        <v>43383</v>
       </c>
       <c r="C232">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B233" s="6">
-        <v>43385</v>
+        <v>43384</v>
       </c>
       <c r="C233">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B234" s="6">
-        <v>43386</v>
+        <v>43385</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B235" s="6">
-        <v>43387</v>
+        <v>43386</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B236" s="6">
-        <v>43388</v>
+        <v>43387</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B237" s="6">
-        <v>43389</v>
+        <v>43388</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B238" s="6">
-        <v>43390</v>
+        <v>43389</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B239" s="6">
-        <v>43391</v>
+        <v>43390</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -2949,98 +2854,98 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B240" s="6">
-        <v>43392</v>
+        <v>43391</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B241" s="6">
-        <v>43393</v>
+        <v>43392</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B242" s="6">
-        <v>43394</v>
+        <v>43393</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B243" s="6">
+        <v>43394</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="6">
         <v>43395</v>
       </c>
-      <c r="C243">
+      <c r="C244">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>44</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B246" s="6">
-        <v>43403</v>
-      </c>
-      <c r="C246">
-        <v>2</v>
+      <c r="A246" t="s">
+        <v>51</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B247" s="6">
-        <v>43404</v>
+        <v>43403</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B248" s="6">
-        <v>43405</v>
+        <v>43404</v>
       </c>
       <c r="C248">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B249" s="6">
-        <v>43406</v>
+        <v>43405</v>
       </c>
       <c r="C249">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B250" s="6">
-        <v>43407</v>
+        <v>43406</v>
       </c>
       <c r="C250">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B251" s="6">
-        <v>43408</v>
+        <v>43407</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B252" s="6">
-        <v>43409</v>
+        <v>43408</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -3048,133 +2953,146 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B253" s="6">
-        <v>43410</v>
+        <v>43409</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B254" s="6">
+        <v>43410</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="6">
         <v>43411</v>
       </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>45</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B257" s="6">
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>52</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B258" s="6">
         <v>43414</v>
       </c>
-      <c r="C257">
+      <c r="C258">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B258" s="6">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B259" s="6">
         <v>43415</v>
       </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B259" s="6">
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B260" s="6">
         <v>43416</v>
       </c>
-      <c r="C259">
+      <c r="C260">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B260" s="6">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B261" s="6">
         <v>43417</v>
       </c>
-      <c r="C260">
+      <c r="C261">
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B261" s="6">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B262" s="6">
         <v>43418</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B262" s="6">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B263" s="6">
         <v>43419</v>
       </c>
-      <c r="C262">
+      <c r="C263">
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B263" s="6">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B264" s="6">
         <v>43420</v>
       </c>
-      <c r="C263">
+      <c r="C264">
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B264" s="6">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B265" s="6">
         <v>43421</v>
       </c>
-      <c r="C264">
+      <c r="C265">
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B265" s="6">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B266" s="6">
         <v>43422</v>
       </c>
-      <c r="C265">
+      <c r="C266">
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B266" s="6">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B267" s="6">
         <v>43423</v>
       </c>
-      <c r="C266">
+      <c r="C267">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B267" s="6">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B268" s="6">
         <v>43424</v>
       </c>
-      <c r="C267">
+      <c r="C268">
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B268" s="6">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B269" s="6">
         <v>43425</v>
       </c>
-      <c r="C268">
+      <c r="C269">
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B269" s="6">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="6">
         <v>43426</v>
       </c>
-      <c r="C269">
-        <v>1</v>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
